--- a/Standard fuel types.xlsx
+++ b/Standard fuel types.xlsx
@@ -165,32 +165,35 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A9"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="85.32"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -201,7 +204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -209,7 +212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -217,7 +220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -233,7 +236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -241,7 +244,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -249,7 +252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -268,7 +271,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
